--- a/artfynd/A 57525-2022.xlsx
+++ b/artfynd/A 57525-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>124816</v>
+        <v>91243187</v>
       </c>
       <c r="B2" t="n">
-        <v>90137</v>
+        <v>93276</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,49 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>366</v>
+        <v>2170</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>SÄTRA RAVIN, Ög</t>
+          <t>Sätra gård, 325 m NV, Norrköpings kommun, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>566285.3946892835</v>
+        <v>566223.449309824</v>
       </c>
       <c r="R2" t="n">
-        <v>6504344.556485297</v>
+        <v>6504524.500613356</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +758,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1992-06-24</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +768,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1992-06-24</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,40 +776,40 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens källa: k178e _SMF okt-99_Naturvårdsprogram. April 1990. - Norrköpings kommun. Sid 79._ _</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tommy Karlsson</t>
+          <t>Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Torbjörn Blixt, Johan Molin</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54370055</v>
+        <v>100491676</v>
       </c>
       <c r="B3" t="n">
-        <v>89940</v>
+        <v>5426</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,40 +818,51 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3884</v>
+        <v>101410</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sätra V, Ög</t>
+          <t>Reliktbock, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>566216.9871453024</v>
+        <v>566142.409524832</v>
       </c>
       <c r="R3" t="n">
-        <v>6504322.586128206</v>
+        <v>6504540.80486113</v>
       </c>
       <c r="S3" t="n">
         <v>100</v>
@@ -870,7 +889,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -880,7 +899,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -898,40 +917,25 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Lövskog med inslag av barrträd</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>hassel</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>hassel</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Ellinor Runo</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Ellinor Runo</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91232073</v>
+        <v>105922182</v>
       </c>
       <c r="B4" t="n">
-        <v>88488</v>
+        <v>77258</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,40 +948,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>889</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vintertagging</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Irpicodon pendulus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tall på höjd, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>566248.281937404</v>
+        <v>566431.2779335199</v>
       </c>
       <c r="R4" t="n">
-        <v>6504412.5800757</v>
+        <v>6504620.102114327</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1001,7 +1002,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1011,7 +1012,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1025,29 +1026,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Rasmus Viding</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Rasmus Viding</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91243231</v>
+        <v>105911300</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>93145</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,48 +1056,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>2667</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>566291.262646485</v>
+        <v>566066.7646219858</v>
       </c>
       <c r="R5" t="n">
-        <v>6504397.70893583</v>
+        <v>6504576.965943796</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1121,7 +1115,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1131,7 +1125,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1145,49 +1139,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Hälltallskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>vanlig gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies subsp. abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies subsp. abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91243187</v>
+        <v>105922191</v>
       </c>
       <c r="B6" t="n">
-        <v>93276</v>
+        <v>93132</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1200,45 +1173,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2170</v>
+        <v>2671</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sätra gård, 325 m NV, Norrköpings kommun, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>566223.449309824</v>
+        <v>566088.1997771007</v>
       </c>
       <c r="R6" t="n">
-        <v>6504524.500613356</v>
+        <v>6504634.019922346</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1262,7 +1227,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1272,7 +1237,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1286,34 +1251,28 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt, Johan Molin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91243225</v>
+        <v>105911024</v>
       </c>
       <c r="B7" t="n">
-        <v>88488</v>
+        <v>89940</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1322,48 +1281,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>889</v>
+        <v>3884</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vintertagging</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Irpicodon pendulus</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>566291.262646485</v>
+        <v>566108.6579786695</v>
       </c>
       <c r="R7" t="n">
-        <v>6504397.70893583</v>
+        <v>6504503.303805599</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1387,7 +1340,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1397,7 +1350,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1411,49 +1364,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Hälltallskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>vanlig tall</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100491676</v>
+        <v>105911962</v>
       </c>
       <c r="B8" t="n">
-        <v>5426</v>
+        <v>92939</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1462,54 +1394,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101410</v>
+        <v>2779</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Reliktbock, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>566142.409524832</v>
+        <v>566412.8692263239</v>
       </c>
       <c r="R8" t="n">
-        <v>6504540.80486113</v>
+        <v>6504721.723898752</v>
       </c>
       <c r="S8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1533,7 +1453,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1543,7 +1463,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1557,29 +1477,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Ellinor Runo</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Ellinor Runo</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105922182</v>
+        <v>105911959</v>
       </c>
       <c r="B9" t="n">
-        <v>77258</v>
+        <v>93145</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1588,41 +1507,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>2667</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>566431.2779335199</v>
+        <v>566411.8452425712</v>
       </c>
       <c r="R9" t="n">
-        <v>6504620.102114327</v>
+        <v>6504720.666258927</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1676,22 +1596,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105908082</v>
+        <v>105910691</v>
       </c>
       <c r="B10" t="n">
-        <v>93132</v>
+        <v>89412</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1700,39 +1620,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2671</v>
+        <v>5442</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>566120.2972134845</v>
+        <v>566294.5156462467</v>
       </c>
       <c r="R10" t="n">
-        <v>6504370.352940767</v>
+        <v>6504604.245934125</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1801,10 +1721,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105911300</v>
+        <v>105911268</v>
       </c>
       <c r="B11" t="n">
-        <v>93145</v>
+        <v>93132</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1817,21 +1737,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1842,10 +1762,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>566066.7646219858</v>
+        <v>566059.039587599</v>
       </c>
       <c r="R11" t="n">
-        <v>6504576.965943796</v>
+        <v>6504571.633778005</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1914,7 +1834,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105922196</v>
+        <v>105911979</v>
       </c>
       <c r="B12" t="n">
         <v>93132</v>
@@ -1948,19 +1868,20 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>566182.5961466519</v>
+        <v>566402.9016479054</v>
       </c>
       <c r="R12" t="n">
-        <v>6504353.208300118</v>
+        <v>6504725.714285977</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2014,19 +1935,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105922191</v>
+        <v>105911157</v>
       </c>
       <c r="B13" t="n">
         <v>93132</v>
@@ -2060,19 +1981,20 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>566088.1997771007</v>
+        <v>566100.1639845253</v>
       </c>
       <c r="R13" t="n">
-        <v>6504634.019922346</v>
+        <v>6504543.207177168</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2126,22 +2048,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105922186</v>
+        <v>105922192</v>
       </c>
       <c r="B14" t="n">
-        <v>93235</v>
+        <v>93132</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2154,21 +2076,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>210</v>
+        <v>2671</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2178,10 +2100,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>566230.9015748888</v>
+        <v>566072.7502885833</v>
       </c>
       <c r="R14" t="n">
-        <v>6504331.665221849</v>
+        <v>6504592.670405052</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2250,10 +2172,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105911024</v>
+        <v>107539567</v>
       </c>
       <c r="B15" t="n">
-        <v>89940</v>
+        <v>78098</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2262,39 +2184,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3884</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>566108.6579786695</v>
+        <v>566326.7508693903</v>
       </c>
       <c r="R15" t="n">
-        <v>6504503.303805599</v>
+        <v>6504577.750763981</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2321,7 +2243,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2331,7 +2253,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2356,17 +2278,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105908384</v>
+        <v>107539797</v>
       </c>
       <c r="B16" t="n">
-        <v>93132</v>
+        <v>8377</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2379,35 +2301,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2671</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>566243.7563829076</v>
+        <v>566293.0750196928</v>
       </c>
       <c r="R16" t="n">
-        <v>6504341.766549774</v>
+        <v>6504627.625396326</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2434,7 +2356,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2444,7 +2366,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2469,17 +2391,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>105922200</v>
+        <v>107540010</v>
       </c>
       <c r="B17" t="n">
-        <v>98520</v>
+        <v>4717</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2492,37 +2414,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>566234.5303274191</v>
+        <v>566373.3914040631</v>
       </c>
       <c r="R17" t="n">
-        <v>6504332.767272169</v>
+        <v>6504592.589049792</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2546,7 +2469,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2556,7 +2479,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2576,22 +2499,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>105911962</v>
+        <v>107539064</v>
       </c>
       <c r="B18" t="n">
-        <v>92939</v>
+        <v>93132</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2604,35 +2527,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2779</v>
+        <v>2671</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>566412.8692263239</v>
+        <v>566062.5974994691</v>
       </c>
       <c r="R18" t="n">
-        <v>6504721.723898752</v>
+        <v>6504576.895152691</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2659,7 +2582,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2669,7 +2592,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2694,14 +2617,14 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>105911959</v>
+        <v>107539201</v>
       </c>
       <c r="B19" t="n">
         <v>93145</v>
@@ -2738,14 +2661,14 @@
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>566411.8452425712</v>
+        <v>566061.0348285129</v>
       </c>
       <c r="R19" t="n">
-        <v>6504720.666258927</v>
+        <v>6504576.868607176</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2772,7 +2695,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2782,7 +2705,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2807,17 +2730,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>105922190</v>
+        <v>107539266</v>
       </c>
       <c r="B20" t="n">
-        <v>4717</v>
+        <v>93132</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2830,37 +2753,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>102306</v>
+        <v>2671</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>566166.7021326567</v>
+        <v>566125.9184126663</v>
       </c>
       <c r="R20" t="n">
-        <v>6504399.228597974</v>
+        <v>6504499.436422393</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2884,7 +2808,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2894,7 +2818,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2914,22 +2838,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>105922199</v>
+        <v>107650039</v>
       </c>
       <c r="B21" t="n">
-        <v>93132</v>
+        <v>93145</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2942,37 +2866,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>566151.2347921591</v>
+        <v>566059.622097269</v>
       </c>
       <c r="R21" t="n">
-        <v>6504358.916229588</v>
+        <v>6504598.688466557</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2996,7 +2921,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3006,7 +2931,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3026,22 +2951,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105910691</v>
+        <v>107667102</v>
       </c>
       <c r="B22" t="n">
-        <v>89412</v>
+        <v>4717</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3050,42 +2975,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5442</v>
+        <v>102306</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>566294.5156462467</v>
+        <v>566260.1085438586</v>
       </c>
       <c r="R22" t="n">
-        <v>6504604.245934125</v>
+        <v>6504788.80747718</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3109,7 +3033,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3119,7 +3043,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3139,19 +3063,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>105911268</v>
+        <v>107667105</v>
       </c>
       <c r="B23" t="n">
         <v>93132</v>
@@ -3185,20 +3109,19 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>566059.039587599</v>
+        <v>566083.1411503308</v>
       </c>
       <c r="R23" t="n">
-        <v>6504571.633778005</v>
+        <v>6504625.092488396</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3222,7 +3145,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3232,7 +3155,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3252,19 +3175,19 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>105922198</v>
+        <v>107667104</v>
       </c>
       <c r="B24" t="n">
         <v>93132</v>
@@ -3304,10 +3227,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>566160.2584872545</v>
+        <v>566062.7827518755</v>
       </c>
       <c r="R24" t="n">
-        <v>6504349.187377368</v>
+        <v>6504596.661795225</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3334,7 +3257,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3344,7 +3267,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3376,10 +3299,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>105922197</v>
+        <v>107667100</v>
       </c>
       <c r="B25" t="n">
-        <v>93132</v>
+        <v>89940</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3392,21 +3315,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2671</v>
+        <v>3884</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3416,10 +3339,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>566181.4481271177</v>
+        <v>566058.703970582</v>
       </c>
       <c r="R25" t="n">
-        <v>6504359.430244223</v>
+        <v>6504591.391598445</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3446,7 +3369,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3456,7 +3379,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3488,10 +3411,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>105911979</v>
+        <v>124816</v>
       </c>
       <c r="B26" t="n">
-        <v>93132</v>
+        <v>90137</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3500,42 +3423,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2671</v>
+        <v>366</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>SÄTRA RAVIN, Ög</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>566402.9016479054</v>
+        <v>566285.3946892835</v>
       </c>
       <c r="R26" t="n">
-        <v>6504725.714285977</v>
+        <v>6504344.556485297</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3559,7 +3481,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>1992-06-24</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3569,7 +3491,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>1992-06-24</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3577,6 +3499,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens källa: k178e _SMF okt-99_Naturvårdsprogram. April 1990. - Norrköpings kommun. Sid 79._ _</t>
+        </is>
+      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3586,25 +3513,26 @@
       <c r="AG26" t="b">
         <v>0</v>
       </c>
+      <c r="AR26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Tommy Karlsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>105911157</v>
+        <v>54370055</v>
       </c>
       <c r="B27" t="n">
-        <v>93132</v>
+        <v>89940</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3617,38 +3545,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2671</v>
+        <v>3884</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra V, Ög</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>566100.1639845253</v>
+        <v>566216.9871453024</v>
       </c>
       <c r="R27" t="n">
-        <v>6504543.207177168</v>
+        <v>6504322.586128206</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3672,7 +3601,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3682,7 +3611,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3696,28 +3625,44 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Lövskog med inslag av barrträd</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>hassel</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>hassel</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>105922192</v>
+        <v>91232073</v>
       </c>
       <c r="B28" t="n">
-        <v>93132</v>
+        <v>88488</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3726,41 +3671,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2671</v>
+        <v>889</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Vintertagging</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Irpicodon pendulus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Tall på höjd, Ög</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>566072.7502885833</v>
+        <v>566248.281937404</v>
       </c>
       <c r="R28" t="n">
-        <v>6504592.670405052</v>
+        <v>6504412.5800757</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3784,7 +3732,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3794,7 +3742,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3808,28 +3756,29 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Rasmus Viding</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Rasmus Viding</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>105922195</v>
+        <v>91243231</v>
       </c>
       <c r="B29" t="n">
-        <v>93132</v>
+        <v>89410</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3838,41 +3787,48 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2671</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>566309.498928471</v>
+        <v>566291.262646485</v>
       </c>
       <c r="R29" t="n">
-        <v>6504336.645360181</v>
+        <v>6504397.70893583</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3896,7 +3852,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3906,7 +3862,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3920,28 +3876,49 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Hälltallskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>vanlig gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies subsp. abies</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Picea abies subsp. abies</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>107539567</v>
+        <v>91243225</v>
       </c>
       <c r="B30" t="n">
-        <v>78098</v>
+        <v>88488</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,38 +3931,44 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6453</v>
+        <v>889</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vintertagging</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Irpicodon pendulus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>566326.7508693903</v>
+        <v>566291.262646485</v>
       </c>
       <c r="R30" t="n">
-        <v>6504577.750763981</v>
+        <v>6504397.70893583</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4009,7 +3992,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4019,7 +4002,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4033,28 +4016,49 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Hälltallskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>vanlig tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107539797</v>
+        <v>105908082</v>
       </c>
       <c r="B31" t="n">
-        <v>8377</v>
+        <v>93132</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4067,35 +4071,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106545</v>
+        <v>2671</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>566293.0750196928</v>
+        <v>566120.2972134845</v>
       </c>
       <c r="R31" t="n">
-        <v>6504627.625396326</v>
+        <v>6504370.352940767</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4122,7 +4126,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4132,7 +4136,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4157,17 +4161,17 @@
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107540010</v>
+        <v>105922196</v>
       </c>
       <c r="B32" t="n">
-        <v>4717</v>
+        <v>93132</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4180,38 +4184,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>102306</v>
+        <v>2671</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>566373.3914040631</v>
+        <v>566182.5961466519</v>
       </c>
       <c r="R32" t="n">
-        <v>6504592.589049792</v>
+        <v>6504353.208300118</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4235,7 +4238,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4245,7 +4248,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4265,22 +4268,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>107539064</v>
+        <v>105922186</v>
       </c>
       <c r="B33" t="n">
-        <v>93132</v>
+        <v>93235</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4293,38 +4296,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2671</v>
+        <v>210</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>566062.5974994691</v>
+        <v>566230.9015748888</v>
       </c>
       <c r="R33" t="n">
-        <v>6504576.895152691</v>
+        <v>6504331.665221849</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4348,7 +4350,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4358,7 +4360,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4378,22 +4380,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>107539201</v>
+        <v>105908384</v>
       </c>
       <c r="B34" t="n">
-        <v>93145</v>
+        <v>93132</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4406,35 +4408,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>566061.0348285129</v>
+        <v>566243.7563829076</v>
       </c>
       <c r="R34" t="n">
-        <v>6504576.868607176</v>
+        <v>6504341.766549774</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4461,7 +4463,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4471,7 +4473,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4496,17 +4498,17 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>107539266</v>
+        <v>105922200</v>
       </c>
       <c r="B35" t="n">
-        <v>93132</v>
+        <v>98520</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4519,38 +4521,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2671</v>
+        <v>222498</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>566125.9184126663</v>
+        <v>566234.5303274191</v>
       </c>
       <c r="R35" t="n">
-        <v>6504499.436422393</v>
+        <v>6504332.767272169</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4574,7 +4575,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4584,7 +4585,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4604,22 +4605,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>107650039</v>
+        <v>105922190</v>
       </c>
       <c r="B36" t="n">
-        <v>93145</v>
+        <v>4717</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4632,38 +4633,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2667</v>
+        <v>102306</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>566059.622097269</v>
+        <v>566166.7021326567</v>
       </c>
       <c r="R36" t="n">
-        <v>6504598.688466557</v>
+        <v>6504399.228597974</v>
       </c>
       <c r="S36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4717,22 +4717,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>107667101</v>
+        <v>105922199</v>
       </c>
       <c r="B37" t="n">
-        <v>4717</v>
+        <v>93132</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4745,21 +4745,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>102306</v>
+        <v>2671</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4769,10 +4769,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>566202.7628641464</v>
+        <v>566151.2347921591</v>
       </c>
       <c r="R37" t="n">
-        <v>6504331.70626861</v>
+        <v>6504358.916229588</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4841,10 +4841,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107667102</v>
+        <v>105922198</v>
       </c>
       <c r="B38" t="n">
-        <v>4717</v>
+        <v>93132</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4857,21 +4857,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>102306</v>
+        <v>2671</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4881,10 +4881,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>566260.1085438586</v>
+        <v>566160.2584872545</v>
       </c>
       <c r="R38" t="n">
-        <v>6504788.80747718</v>
+        <v>6504349.187377368</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4953,7 +4953,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107667105</v>
+        <v>105922197</v>
       </c>
       <c r="B39" t="n">
         <v>93132</v>
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>566083.1411503308</v>
+        <v>566181.4481271177</v>
       </c>
       <c r="R39" t="n">
-        <v>6504625.092488396</v>
+        <v>6504359.430244223</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5065,7 +5065,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107667104</v>
+        <v>105922195</v>
       </c>
       <c r="B40" t="n">
         <v>93132</v>
@@ -5105,10 +5105,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>566062.7827518755</v>
+        <v>566309.498928471</v>
       </c>
       <c r="R40" t="n">
-        <v>6504596.661795225</v>
+        <v>6504336.645360181</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5177,10 +5177,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107667106</v>
+        <v>107667101</v>
       </c>
       <c r="B41" t="n">
-        <v>98520</v>
+        <v>4717</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5193,21 +5193,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5217,10 +5217,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>566242.7161419503</v>
+        <v>566202.7628641464</v>
       </c>
       <c r="R41" t="n">
-        <v>6504311.061301955</v>
+        <v>6504331.70626861</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107667100</v>
+        <v>107667106</v>
       </c>
       <c r="B42" t="n">
-        <v>89940</v>
+        <v>98520</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5305,21 +5305,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3884</v>
+        <v>222498</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5329,10 +5329,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>566058.703970582</v>
+        <v>566242.7161419503</v>
       </c>
       <c r="R42" t="n">
-        <v>6504591.391598445</v>
+        <v>6504311.061301955</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>

--- a/artfynd/A 57525-2022.xlsx
+++ b/artfynd/A 57525-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91243187</v>
+        <v>124816</v>
       </c>
       <c r="B2" t="n">
-        <v>93276</v>
+        <v>90137</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,49 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2170</v>
+        <v>366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sätra gård, 325 m NV, Norrköpings kommun, Ög</t>
+          <t>SÄTRA RAVIN, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>566223.449309824</v>
+        <v>566285.3946892835</v>
       </c>
       <c r="R2" t="n">
-        <v>6504524.500613356</v>
+        <v>6504344.556485297</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>1992-06-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -768,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>1992-06-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,40 +768,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens källa: k178e _SMF okt-99_Naturvårdsprogram. April 1990. - Norrköpings kommun. Sid 79._ _</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Tallskog</t>
-        </is>
-      </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt</t>
+          <t>Tommy Karlsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt, Johan Molin</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100491676</v>
+        <v>54370055</v>
       </c>
       <c r="B3" t="n">
-        <v>5426</v>
+        <v>89940</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,51 +810,40 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101410</v>
+        <v>3884</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Reliktbock, Ög</t>
+          <t>Sätra V, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>566142.409524832</v>
+        <v>566216.9871453024</v>
       </c>
       <c r="R3" t="n">
-        <v>6504540.80486113</v>
+        <v>6504322.586128206</v>
       </c>
       <c r="S3" t="n">
         <v>100</v>
@@ -889,7 +870,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -899,7 +880,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -917,25 +898,40 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Lövskog med inslag av barrträd</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>hassel</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>hassel</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ellinor Runo</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ellinor Runo</t>
+          <t>Dan Olofsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105922182</v>
+        <v>91232073</v>
       </c>
       <c r="B4" t="n">
-        <v>77258</v>
+        <v>88488</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,37 +944,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>889</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vintertagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Irpicodon pendulus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Tall på höjd, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>566431.2779335199</v>
+        <v>566248.281937404</v>
       </c>
       <c r="R4" t="n">
-        <v>6504620.102114327</v>
+        <v>6504412.5800757</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1002,7 +1001,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,7 +1011,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1026,28 +1025,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Rasmus Viding</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Rasmus Viding</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105911300</v>
+        <v>91243231</v>
       </c>
       <c r="B5" t="n">
-        <v>93145</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,42 +1056,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2667</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>566066.7646219858</v>
+        <v>566291.262646485</v>
       </c>
       <c r="R5" t="n">
-        <v>6504576.965943796</v>
+        <v>6504397.70893583</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1115,7 +1121,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1125,7 +1131,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1139,28 +1145,49 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Hälltallskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>vanlig gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies subsp. abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies subsp. abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105922191</v>
+        <v>91243187</v>
       </c>
       <c r="B6" t="n">
-        <v>93132</v>
+        <v>93276</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,37 +1200,45 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2671</v>
+        <v>2170</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Sätra gård, 325 m NV, Norrköpings kommun, Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>566088.1997771007</v>
+        <v>566223.449309824</v>
       </c>
       <c r="R6" t="n">
-        <v>6504634.019922346</v>
+        <v>6504524.500613356</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1227,7 +1262,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1237,7 +1272,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1251,28 +1286,34 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Tallskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Torbjörn Blixt, Johan Molin</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105911024</v>
+        <v>91243225</v>
       </c>
       <c r="B7" t="n">
-        <v>89940</v>
+        <v>88488</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,42 +1322,48 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3884</v>
+        <v>889</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Vintertagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Irpicodon pendulus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>566108.6579786695</v>
+        <v>566291.262646485</v>
       </c>
       <c r="R7" t="n">
-        <v>6504503.303805599</v>
+        <v>6504397.70893583</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1340,7 +1387,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1350,7 +1397,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2021-02-28</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1364,28 +1411,49 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Hälltallskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>vanlig tall</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris var. sylvestris</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Torbjörn Blixt</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105911962</v>
+        <v>100491676</v>
       </c>
       <c r="B8" t="n">
-        <v>92939</v>
+        <v>5426</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,42 +1462,54 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2779</v>
+        <v>101410</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Guldlockmossa</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Homalothecium sericeum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Reliktbock, Ög</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>566412.8692263239</v>
+        <v>566142.409524832</v>
       </c>
       <c r="R8" t="n">
-        <v>6504721.723898752</v>
+        <v>6504540.80486113</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1453,7 +1533,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1463,7 +1543,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1477,28 +1557,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Ellinor Runo</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Ellinor Runo</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105911959</v>
+        <v>105922182</v>
       </c>
       <c r="B9" t="n">
-        <v>93145</v>
+        <v>77258</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,42 +1588,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2667</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>566411.8452425712</v>
+        <v>566431.2779335199</v>
       </c>
       <c r="R9" t="n">
-        <v>6504720.666258927</v>
+        <v>6504620.102114327</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1596,22 +1676,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105910691</v>
+        <v>105908082</v>
       </c>
       <c r="B10" t="n">
-        <v>89412</v>
+        <v>93132</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,39 +1700,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5442</v>
+        <v>2671</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>566294.5156462467</v>
+        <v>566120.2972134845</v>
       </c>
       <c r="R10" t="n">
-        <v>6504604.245934125</v>
+        <v>6504370.352940767</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1721,10 +1801,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105911268</v>
+        <v>105911300</v>
       </c>
       <c r="B11" t="n">
-        <v>93132</v>
+        <v>93145</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1737,21 +1817,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1762,10 +1842,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>566059.039587599</v>
+        <v>566066.7646219858</v>
       </c>
       <c r="R11" t="n">
-        <v>6504571.633778005</v>
+        <v>6504576.965943796</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1834,7 +1914,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105911979</v>
+        <v>105922196</v>
       </c>
       <c r="B12" t="n">
         <v>93132</v>
@@ -1868,20 +1948,19 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>566402.9016479054</v>
+        <v>566182.5961466519</v>
       </c>
       <c r="R12" t="n">
-        <v>6504725.714285977</v>
+        <v>6504353.208300118</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1935,19 +2014,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105911157</v>
+        <v>105922191</v>
       </c>
       <c r="B13" t="n">
         <v>93132</v>
@@ -1981,20 +2060,19 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>566100.1639845253</v>
+        <v>566088.1997771007</v>
       </c>
       <c r="R13" t="n">
-        <v>6504543.207177168</v>
+        <v>6504634.019922346</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2048,22 +2126,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105922192</v>
+        <v>105922186</v>
       </c>
       <c r="B14" t="n">
-        <v>93132</v>
+        <v>93235</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2076,21 +2154,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2671</v>
+        <v>210</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2100,10 +2178,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>566072.7502885833</v>
+        <v>566230.9015748888</v>
       </c>
       <c r="R14" t="n">
-        <v>6504592.670405052</v>
+        <v>6504331.665221849</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2172,10 +2250,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107539567</v>
+        <v>105911024</v>
       </c>
       <c r="B15" t="n">
-        <v>78098</v>
+        <v>89940</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2184,39 +2262,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>3884</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>566326.7508693903</v>
+        <v>566108.6579786695</v>
       </c>
       <c r="R15" t="n">
-        <v>6504577.750763981</v>
+        <v>6504503.303805599</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2243,7 +2321,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2253,7 +2331,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2278,17 +2356,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107539797</v>
+        <v>105908384</v>
       </c>
       <c r="B16" t="n">
-        <v>8377</v>
+        <v>93132</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2301,35 +2379,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106545</v>
+        <v>2671</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>566293.0750196928</v>
+        <v>566243.7563829076</v>
       </c>
       <c r="R16" t="n">
-        <v>6504627.625396326</v>
+        <v>6504341.766549774</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2356,7 +2434,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2366,7 +2444,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2391,17 +2469,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107540010</v>
+        <v>105922200</v>
       </c>
       <c r="B17" t="n">
-        <v>4717</v>
+        <v>98520</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2414,38 +2492,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>102306</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Ugglebo, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>566373.3914040631</v>
+        <v>566234.5303274191</v>
       </c>
       <c r="R17" t="n">
-        <v>6504592.589049792</v>
+        <v>6504332.767272169</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2469,7 +2546,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2479,7 +2556,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2499,22 +2576,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>107539064</v>
+        <v>105911962</v>
       </c>
       <c r="B18" t="n">
-        <v>93132</v>
+        <v>92939</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2527,35 +2604,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2671</v>
+        <v>2779</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Guldlockmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Homalothecium sericeum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>566062.5974994691</v>
+        <v>566412.8692263239</v>
       </c>
       <c r="R18" t="n">
-        <v>6504576.895152691</v>
+        <v>6504721.723898752</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2582,7 +2659,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2592,7 +2669,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2617,14 +2694,14 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>107539201</v>
+        <v>105911959</v>
       </c>
       <c r="B19" t="n">
         <v>93145</v>
@@ -2661,14 +2738,14 @@
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>566061.0348285129</v>
+        <v>566411.8452425712</v>
       </c>
       <c r="R19" t="n">
-        <v>6504576.868607176</v>
+        <v>6504720.666258927</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2695,7 +2772,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2705,7 +2782,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2730,17 +2807,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107539266</v>
+        <v>105922190</v>
       </c>
       <c r="B20" t="n">
-        <v>93132</v>
+        <v>4717</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2753,38 +2830,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2671</v>
+        <v>102306</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>566125.9184126663</v>
+        <v>566166.7021326567</v>
       </c>
       <c r="R20" t="n">
-        <v>6504499.436422393</v>
+        <v>6504399.228597974</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2808,7 +2884,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2818,7 +2894,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2838,22 +2914,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107650039</v>
+        <v>105922199</v>
       </c>
       <c r="B21" t="n">
-        <v>93145</v>
+        <v>93132</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2866,38 +2942,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Platt fjädermossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Neckera complanata</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hedw.) Huebener</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Södertälje, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>566059.622097269</v>
+        <v>566151.2347921591</v>
       </c>
       <c r="R21" t="n">
-        <v>6504598.688466557</v>
+        <v>6504358.916229588</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2921,7 +2996,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2931,7 +3006,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2951,22 +3026,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107667102</v>
+        <v>105910691</v>
       </c>
       <c r="B22" t="n">
-        <v>4717</v>
+        <v>89412</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2975,41 +3050,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>102306</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>566260.1085438586</v>
+        <v>566294.5156462467</v>
       </c>
       <c r="R22" t="n">
-        <v>6504788.80747718</v>
+        <v>6504604.245934125</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3033,7 +3109,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3043,7 +3119,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3063,19 +3139,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107667105</v>
+        <v>105911268</v>
       </c>
       <c r="B23" t="n">
         <v>93132</v>
@@ -3109,19 +3185,20 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>566083.1411503308</v>
+        <v>566059.039587599</v>
       </c>
       <c r="R23" t="n">
-        <v>6504625.092488396</v>
+        <v>6504571.633778005</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3145,7 +3222,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3155,7 +3232,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3175,19 +3252,19 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107667104</v>
+        <v>105922198</v>
       </c>
       <c r="B24" t="n">
         <v>93132</v>
@@ -3227,10 +3304,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>566062.7827518755</v>
+        <v>566160.2584872545</v>
       </c>
       <c r="R24" t="n">
-        <v>6504596.661795225</v>
+        <v>6504349.187377368</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3257,7 +3334,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3267,7 +3344,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3299,10 +3376,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107667100</v>
+        <v>105922197</v>
       </c>
       <c r="B25" t="n">
-        <v>89940</v>
+        <v>93132</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3315,21 +3392,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3884</v>
+        <v>2671</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3339,10 +3416,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>566058.703970582</v>
+        <v>566181.4481271177</v>
       </c>
       <c r="R25" t="n">
-        <v>6504591.391598445</v>
+        <v>6504359.430244223</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3369,7 +3446,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3379,7 +3456,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3411,10 +3488,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>124816</v>
+        <v>105911979</v>
       </c>
       <c r="B26" t="n">
-        <v>90137</v>
+        <v>93132</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3423,41 +3500,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>366</v>
+        <v>2671</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>SÄTRA RAVIN, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>566285.3946892835</v>
+        <v>566402.9016479054</v>
       </c>
       <c r="R26" t="n">
-        <v>6504344.556485297</v>
+        <v>6504725.714285977</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3481,7 +3559,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>1992-06-24</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3491,7 +3569,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>1992-06-24</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3499,11 +3577,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens källa: k178e _SMF okt-99_Naturvårdsprogram. April 1990. - Norrköpings kommun. Sid 79._ _</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3513,26 +3586,25 @@
       <c r="AG26" t="b">
         <v>0</v>
       </c>
-      <c r="AR26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Tommy Karlsson</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>54370055</v>
+        <v>105911157</v>
       </c>
       <c r="B27" t="n">
-        <v>89940</v>
+        <v>93132</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3545,39 +3617,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3884</v>
+        <v>2671</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hasselticka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dichomitus campestris</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Quél.) Domański &amp; Orlicz</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sätra V, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>566216.9871453024</v>
+        <v>566100.1639845253</v>
       </c>
       <c r="R27" t="n">
-        <v>6504322.586128206</v>
+        <v>6504543.207177168</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3601,7 +3672,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3611,7 +3682,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3625,44 +3696,28 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>Lövskog med inslag av barrträd</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>hassel</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>hassel</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Dan Olofsson</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>91232073</v>
+        <v>105922192</v>
       </c>
       <c r="B28" t="n">
-        <v>88488</v>
+        <v>93132</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3671,44 +3726,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>889</v>
+        <v>2671</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vintertagging</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Irpicodon pendulus</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Tall på höjd, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>566248.281937404</v>
+        <v>566072.7502885833</v>
       </c>
       <c r="R28" t="n">
-        <v>6504412.5800757</v>
+        <v>6504592.670405052</v>
       </c>
       <c r="S28" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3732,7 +3784,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3742,7 +3794,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3756,29 +3808,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Rasmus Viding</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Rasmus Viding</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>91243231</v>
+        <v>105922195</v>
       </c>
       <c r="B29" t="n">
-        <v>89410</v>
+        <v>93132</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3787,48 +3838,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>2671</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
+          <t>Sätra, Ög</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>566291.262646485</v>
+        <v>566309.498928471</v>
       </c>
       <c r="R29" t="n">
-        <v>6504397.70893583</v>
+        <v>6504336.645360181</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3852,7 +3896,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3862,7 +3906,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3876,49 +3920,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>Hälltallskog</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>vanlig gran</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Picea abies subsp. abies</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Picea abies subsp. abies</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>91243225</v>
+        <v>107539567</v>
       </c>
       <c r="B30" t="n">
-        <v>88488</v>
+        <v>78098</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3931,44 +3954,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>889</v>
+        <v>6453</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vintertagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Irpicodon pendulus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Sätra gård, 225 m VNV, Norrköpings kommun, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>566291.262646485</v>
+        <v>566326.7508693903</v>
       </c>
       <c r="R30" t="n">
-        <v>6504397.70893583</v>
+        <v>6504577.750763981</v>
       </c>
       <c r="S30" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3992,7 +4009,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4002,7 +4019,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4016,49 +4033,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>Hälltallskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>vanlig tall</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris var. sylvestris</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Torbjörn Blixt, Johan Molin, Staffan Carlsson</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>105908082</v>
+        <v>107539797</v>
       </c>
       <c r="B31" t="n">
-        <v>93132</v>
+        <v>8377</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4071,35 +4067,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2671</v>
+        <v>106545</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>566120.2972134845</v>
+        <v>566293.0750196928</v>
       </c>
       <c r="R31" t="n">
-        <v>6504370.352940767</v>
+        <v>6504627.625396326</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4126,7 +4122,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4136,7 +4132,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4161,17 +4157,17 @@
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>105922196</v>
+        <v>107540010</v>
       </c>
       <c r="B32" t="n">
-        <v>93132</v>
+        <v>4717</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4184,37 +4180,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2671</v>
+        <v>102306</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Ugglebo, Ög</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>566182.5961466519</v>
+        <v>566373.3914040631</v>
       </c>
       <c r="R32" t="n">
-        <v>6504353.208300118</v>
+        <v>6504592.589049792</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4238,7 +4235,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4248,7 +4245,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4268,22 +4265,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>105922186</v>
+        <v>107539064</v>
       </c>
       <c r="B33" t="n">
-        <v>93235</v>
+        <v>93132</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4296,37 +4293,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>210</v>
+        <v>2671</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>566230.9015748888</v>
+        <v>566062.5974994691</v>
       </c>
       <c r="R33" t="n">
-        <v>6504331.665221849</v>
+        <v>6504576.895152691</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4350,7 +4348,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4360,7 +4358,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4380,22 +4378,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>105908384</v>
+        <v>107539201</v>
       </c>
       <c r="B34" t="n">
-        <v>93132</v>
+        <v>93145</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4408,35 +4406,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>566243.7563829076</v>
+        <v>566061.0348285129</v>
       </c>
       <c r="R34" t="n">
-        <v>6504341.766549774</v>
+        <v>6504576.868607176</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4463,7 +4461,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4473,7 +4471,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4498,17 +4496,17 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>105922200</v>
+        <v>107539266</v>
       </c>
       <c r="B35" t="n">
-        <v>98520</v>
+        <v>93132</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4521,37 +4519,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222498</v>
+        <v>2671</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>566234.5303274191</v>
+        <v>566125.9184126663</v>
       </c>
       <c r="R35" t="n">
-        <v>6504332.767272169</v>
+        <v>6504499.436422393</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4575,7 +4574,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4585,7 +4584,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4605,22 +4604,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>105922190</v>
+        <v>107650039</v>
       </c>
       <c r="B36" t="n">
-        <v>4717</v>
+        <v>93145</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4633,37 +4632,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>102306</v>
+        <v>2667</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Platt fjädermossa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Neckera complanata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hedw.) Huebener</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Sätra, Ög</t>
+          <t>Södertälje, Ög</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>566166.7021326567</v>
+        <v>566059.622097269</v>
       </c>
       <c r="R36" t="n">
-        <v>6504399.228597974</v>
+        <v>6504598.688466557</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4717,22 +4717,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>105922199</v>
+        <v>107667101</v>
       </c>
       <c r="B37" t="n">
-        <v>93132</v>
+        <v>4717</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4745,21 +4745,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2671</v>
+        <v>102306</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4769,10 +4769,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>566151.2347921591</v>
+        <v>566202.7628641464</v>
       </c>
       <c r="R37" t="n">
-        <v>6504358.916229588</v>
+        <v>6504331.70626861</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4841,10 +4841,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>105922198</v>
+        <v>107667102</v>
       </c>
       <c r="B38" t="n">
-        <v>93132</v>
+        <v>4717</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4857,21 +4857,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2671</v>
+        <v>102306</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4881,10 +4881,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>566160.2584872545</v>
+        <v>566260.1085438586</v>
       </c>
       <c r="R38" t="n">
-        <v>6504349.187377368</v>
+        <v>6504788.80747718</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4953,7 +4953,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>105922197</v>
+        <v>107667105</v>
       </c>
       <c r="B39" t="n">
         <v>93132</v>
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>566181.4481271177</v>
+        <v>566083.1411503308</v>
       </c>
       <c r="R39" t="n">
-        <v>6504359.430244223</v>
+        <v>6504625.092488396</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5065,7 +5065,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>105922195</v>
+        <v>107667104</v>
       </c>
       <c r="B40" t="n">
         <v>93132</v>
@@ -5105,10 +5105,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>566309.498928471</v>
+        <v>566062.7827518755</v>
       </c>
       <c r="R40" t="n">
-        <v>6504336.645360181</v>
+        <v>6504596.661795225</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5177,10 +5177,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107667101</v>
+        <v>107667106</v>
       </c>
       <c r="B41" t="n">
-        <v>4717</v>
+        <v>98520</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5193,21 +5193,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>102306</v>
+        <v>222498</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5217,10 +5217,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>566202.7628641464</v>
+        <v>566242.7161419503</v>
       </c>
       <c r="R41" t="n">
-        <v>6504331.70626861</v>
+        <v>6504311.061301955</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107667106</v>
+        <v>107667100</v>
       </c>
       <c r="B42" t="n">
-        <v>98520</v>
+        <v>89940</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5305,21 +5305,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222498</v>
+        <v>3884</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Hasselticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dichomitus campestris</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Domański &amp; Orlicz</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5329,10 +5329,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>566242.7161419503</v>
+        <v>566058.703970582</v>
       </c>
       <c r="R42" t="n">
-        <v>6504311.061301955</v>
+        <v>6504591.391598445</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
